--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H2">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N2">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O2">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P2">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q2">
-        <v>114.8147306734245</v>
+        <v>189.7883109628605</v>
       </c>
       <c r="R2">
-        <v>114.8147306734245</v>
+        <v>1708.094798665745</v>
       </c>
       <c r="S2">
-        <v>0.009996745128234036</v>
+        <v>0.01419674835423758</v>
       </c>
       <c r="T2">
-        <v>0.009996745128234036</v>
+        <v>0.01419674835423758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H3">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N3">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O3">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P3">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q3">
-        <v>64.26372972110498</v>
+        <v>83.90421170682221</v>
       </c>
       <c r="R3">
-        <v>64.26372972110498</v>
+        <v>755.1379053613999</v>
       </c>
       <c r="S3">
-        <v>0.00559534585190909</v>
+        <v>0.006276292641096997</v>
       </c>
       <c r="T3">
-        <v>0.00559534585190909</v>
+        <v>0.006276292641096998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H4">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I4">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J4">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N4">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O4">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P4">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q4">
-        <v>166.4948114228406</v>
+        <v>249.0281436525</v>
       </c>
       <c r="R4">
-        <v>166.4948114228406</v>
+        <v>2241.2532928725</v>
       </c>
       <c r="S4">
-        <v>0.01449645167658592</v>
+        <v>0.01862806971947449</v>
       </c>
       <c r="T4">
-        <v>0.01449645167658592</v>
+        <v>0.01862806971947449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H5">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I5">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J5">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N5">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O5">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P5">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q5">
-        <v>257.2816069766015</v>
+        <v>341.0236182841217</v>
       </c>
       <c r="R5">
-        <v>257.2816069766015</v>
+        <v>3069.212564557095</v>
       </c>
       <c r="S5">
-        <v>0.02240112079732366</v>
+        <v>0.02550961366940382</v>
       </c>
       <c r="T5">
-        <v>0.02240112079732366</v>
+        <v>0.02550961366940382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H6">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I6">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J6">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N6">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O6">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P6">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q6">
-        <v>52.80326162330167</v>
+        <v>69.90894275648833</v>
       </c>
       <c r="R6">
-        <v>52.80326162330167</v>
+        <v>629.1804848083949</v>
       </c>
       <c r="S6">
-        <v>0.00459750021004743</v>
+        <v>0.005229403554884275</v>
       </c>
       <c r="T6">
-        <v>0.00459750021004743</v>
+        <v>0.005229403554884275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H7">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I7">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J7">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N7">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O7">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P7">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q7">
-        <v>48.17671942409476</v>
+        <v>67.80536420166278</v>
       </c>
       <c r="R7">
-        <v>48.17671942409476</v>
+        <v>610.248277814965</v>
       </c>
       <c r="S7">
-        <v>0.004194674170921457</v>
+        <v>0.005072049420508353</v>
       </c>
       <c r="T7">
-        <v>0.004194674170921457</v>
+        <v>0.005072049420508355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H8">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J8">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N8">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O8">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P8">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q8">
-        <v>475.4562906827261</v>
+        <v>610.8589959579512</v>
       </c>
       <c r="R8">
-        <v>475.4562906827261</v>
+        <v>5497.73096362156</v>
       </c>
       <c r="S8">
-        <v>0.04139726087143034</v>
+        <v>0.04569412837671716</v>
       </c>
       <c r="T8">
-        <v>0.04139726087143034</v>
+        <v>0.04569412837671716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H9">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J9">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N9">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O9">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P9">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q9">
-        <v>266.1208573100467</v>
+        <v>270.0568979187689</v>
       </c>
       <c r="R9">
-        <v>266.1208573100467</v>
+        <v>2430.51208126892</v>
       </c>
       <c r="S9">
-        <v>0.0231707409687932</v>
+        <v>0.02020108510175343</v>
       </c>
       <c r="T9">
-        <v>0.0231707409687932</v>
+        <v>0.02020108510175343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H10">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J10">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N10">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O10">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P10">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q10">
-        <v>689.467326994712</v>
+        <v>801.5302998645</v>
       </c>
       <c r="R10">
-        <v>689.467326994712</v>
+        <v>7213.772698780499</v>
       </c>
       <c r="S10">
-        <v>0.06003087845770892</v>
+        <v>0.05995692731413615</v>
       </c>
       <c r="T10">
-        <v>0.06003087845770892</v>
+        <v>0.05995692731413615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H11">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J11">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N11">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O11">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P11">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q11">
-        <v>1065.422161394314</v>
+        <v>1097.630006854066</v>
       </c>
       <c r="R11">
-        <v>1065.422161394314</v>
+        <v>9878.670061686589</v>
       </c>
       <c r="S11">
-        <v>0.09276469786551919</v>
+        <v>0.08210609449186058</v>
       </c>
       <c r="T11">
-        <v>0.09276469786551919</v>
+        <v>0.08210609449186057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H12">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I12">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J12">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N12">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O12">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P12">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q12">
-        <v>218.662211374029</v>
+        <v>225.0112578801923</v>
       </c>
       <c r="R12">
-        <v>218.662211374029</v>
+        <v>2025.101320921731</v>
       </c>
       <c r="S12">
-        <v>0.01903858837155436</v>
+        <v>0.01683153292628577</v>
       </c>
       <c r="T12">
-        <v>0.01903858837155436</v>
+        <v>0.01683153292628577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H13">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I13">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J13">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N13">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O13">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P13">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q13">
-        <v>199.5033579776052</v>
+        <v>218.2406096911641</v>
       </c>
       <c r="R13">
-        <v>199.5033579776052</v>
+        <v>1964.165487220477</v>
       </c>
       <c r="S13">
-        <v>0.017370455953093</v>
+        <v>0.01632506765428323</v>
       </c>
       <c r="T13">
-        <v>0.017370455953093</v>
+        <v>0.01632506765428323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H14">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I14">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J14">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N14">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O14">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P14">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q14">
-        <v>305.5030731649054</v>
+        <v>453.7154938747518</v>
       </c>
       <c r="R14">
-        <v>305.5030731649054</v>
+        <v>4083.439444872766</v>
       </c>
       <c r="S14">
-        <v>0.02659969100139773</v>
+        <v>0.03393931195382715</v>
       </c>
       <c r="T14">
-        <v>0.02659969100139773</v>
+        <v>0.03393931195382715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H15">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I15">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J15">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N15">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O15">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P15">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q15">
-        <v>170.9951920601484</v>
+        <v>200.5847497119155</v>
       </c>
       <c r="R15">
-        <v>170.9951920601484</v>
+        <v>1805.26274740724</v>
       </c>
       <c r="S15">
-        <v>0.01488829301913257</v>
+        <v>0.01500435512024262</v>
       </c>
       <c r="T15">
-        <v>0.01488829301913257</v>
+        <v>0.01500435512024262</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H16">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I16">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J16">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N16">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O16">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P16">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q16">
-        <v>443.0152495011038</v>
+        <v>595.3365969314999</v>
       </c>
       <c r="R16">
-        <v>443.0152495011038</v>
+        <v>5358.0293723835</v>
       </c>
       <c r="S16">
-        <v>0.03857266843032914</v>
+        <v>0.04453300527216668</v>
       </c>
       <c r="T16">
-        <v>0.03857266843032914</v>
+        <v>0.04453300527216668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H17">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I17">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J17">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N17">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O17">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P17">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q17">
-        <v>684.5839478884069</v>
+        <v>815.2646419990195</v>
       </c>
       <c r="R17">
-        <v>684.5839478884069</v>
+        <v>7337.381777991177</v>
       </c>
       <c r="S17">
-        <v>0.05960569001713215</v>
+        <v>0.06098429827342002</v>
       </c>
       <c r="T17">
-        <v>0.05960569001713215</v>
+        <v>0.06098429827342002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H18">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I18">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J18">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N18">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O18">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P18">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q18">
-        <v>140.5007755053076</v>
+        <v>167.1271024443063</v>
       </c>
       <c r="R18">
-        <v>140.5007755053076</v>
+        <v>1504.143921998757</v>
       </c>
       <c r="S18">
-        <v>0.0122331902431653</v>
+        <v>0.01250162038187381</v>
       </c>
       <c r="T18">
-        <v>0.0122331902431653</v>
+        <v>0.01250162038187381</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H19">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I19">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J19">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N19">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O19">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P19">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q19">
-        <v>128.190309316042</v>
+        <v>162.0982037831354</v>
       </c>
       <c r="R19">
-        <v>128.190309316042</v>
+        <v>1458.883834048219</v>
       </c>
       <c r="S19">
-        <v>0.01116133655172676</v>
+        <v>0.01212544332213078</v>
       </c>
       <c r="T19">
-        <v>0.01116133655172676</v>
+        <v>0.01212544332213078</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H20">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I20">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J20">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N20">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O20">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P20">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q20">
-        <v>329.5861256374371</v>
+        <v>426.3512629384073</v>
       </c>
       <c r="R20">
-        <v>329.5861256374371</v>
+        <v>3837.161366445665</v>
       </c>
       <c r="S20">
-        <v>0.02869656599353245</v>
+        <v>0.03189238346524099</v>
       </c>
       <c r="T20">
-        <v>0.02869656599353245</v>
+        <v>0.03189238346524099</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H21">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I21">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J21">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N21">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O21">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P21">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q21">
-        <v>184.4748803011644</v>
+        <v>188.4871963166133</v>
       </c>
       <c r="R21">
-        <v>184.4748803011644</v>
+        <v>1696.38476684952</v>
       </c>
       <c r="S21">
-        <v>0.01606194910806054</v>
+        <v>0.01409942098397399</v>
       </c>
       <c r="T21">
-        <v>0.01606194910806054</v>
+        <v>0.01409942098397399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H22">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I22">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J22">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N22">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O22">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P22">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q22">
-        <v>477.9384972096719</v>
+        <v>559.4309945369999</v>
       </c>
       <c r="R22">
-        <v>477.9384972096719</v>
+        <v>5034.878950833</v>
       </c>
       <c r="S22">
-        <v>0.04161338284341054</v>
+        <v>0.04184715597451536</v>
       </c>
       <c r="T22">
-        <v>0.04161338284341054</v>
+        <v>0.04184715597451538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H23">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I23">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J23">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N23">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O23">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P23">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q23">
-        <v>738.5502499882555</v>
+        <v>766.0948643760939</v>
       </c>
       <c r="R23">
-        <v>738.5502499882555</v>
+        <v>6894.853779384845</v>
       </c>
       <c r="S23">
-        <v>0.0643044544042557</v>
+        <v>0.05730624794458233</v>
       </c>
       <c r="T23">
-        <v>0.0643044544042557</v>
+        <v>0.05730624794458233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H24">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I24">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J24">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N24">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O24">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P24">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q24">
-        <v>151.5765644126724</v>
+        <v>157.047427650854</v>
       </c>
       <c r="R24">
-        <v>151.5765644126724</v>
+        <v>1413.426848857686</v>
       </c>
       <c r="S24">
-        <v>0.01319754244912031</v>
+        <v>0.01174762976037975</v>
       </c>
       <c r="T24">
-        <v>0.01319754244912031</v>
+        <v>0.01174762976037975</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H25">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I25">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J25">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N25">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O25">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P25">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q25">
-        <v>138.2956542925944</v>
+        <v>152.3218290668847</v>
       </c>
       <c r="R25">
-        <v>138.2956542925944</v>
+        <v>1370.896461601962</v>
       </c>
       <c r="S25">
-        <v>0.01204119367085214</v>
+        <v>0.01139414047761311</v>
       </c>
       <c r="T25">
-        <v>0.01204119367085214</v>
+        <v>0.01139414047761311</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H26">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I26">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J26">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N26">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O26">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P26">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q26">
-        <v>431.3542736452141</v>
+        <v>561.564616200501</v>
       </c>
       <c r="R26">
-        <v>431.3542736452141</v>
+        <v>5054.081545804508</v>
       </c>
       <c r="S26">
-        <v>0.03755736488091445</v>
+        <v>0.04200675742565953</v>
       </c>
       <c r="T26">
-        <v>0.03755736488091445</v>
+        <v>0.04200675742565953</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H27">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I27">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J27">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N27">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O27">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P27">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q27">
-        <v>241.4362189676405</v>
+        <v>248.2641644561956</v>
       </c>
       <c r="R27">
-        <v>241.4362189676405</v>
+        <v>2234.37748010576</v>
       </c>
       <c r="S27">
-        <v>0.02102148680389374</v>
+        <v>0.01857092172999726</v>
       </c>
       <c r="T27">
-        <v>0.02102148680389374</v>
+        <v>0.01857092172999726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H28">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I28">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J28">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N28">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O28">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P28">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q28">
-        <v>625.5142352010031</v>
+        <v>736.8493518060002</v>
       </c>
       <c r="R28">
-        <v>625.5142352010031</v>
+        <v>6631.644166254001</v>
       </c>
       <c r="S28">
-        <v>0.05446257938080098</v>
+        <v>0.05511859381381996</v>
       </c>
       <c r="T28">
-        <v>0.05446257938080098</v>
+        <v>0.05511859381381996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H29">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I29">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J29">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N29">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O29">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P29">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q29">
-        <v>966.5965338135235</v>
+        <v>1009.054753401039</v>
       </c>
       <c r="R29">
-        <v>966.5965338135235</v>
+        <v>9081.492780609349</v>
       </c>
       <c r="S29">
-        <v>0.084160099785914</v>
+        <v>0.07548039358696391</v>
       </c>
       <c r="T29">
-        <v>0.084160099785914</v>
+        <v>0.0754803935869639</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H30">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I30">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J30">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N30">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O30">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P30">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q30">
-        <v>198.3797064194093</v>
+        <v>206.8535644205854</v>
       </c>
       <c r="R30">
-        <v>198.3797064194093</v>
+        <v>1861.682079785268</v>
       </c>
       <c r="S30">
-        <v>0.01727262130962571</v>
+        <v>0.01547328170716896</v>
       </c>
       <c r="T30">
-        <v>0.01727262130962571</v>
+        <v>0.01547328170716896</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H31">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I31">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J31">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N31">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O31">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P31">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q31">
-        <v>180.997975537644</v>
+        <v>200.6292860243285</v>
       </c>
       <c r="R31">
-        <v>180.997975537644</v>
+        <v>1805.663574218956</v>
       </c>
       <c r="S31">
-        <v>0.01575922026349337</v>
+        <v>0.01500768657314793</v>
       </c>
       <c r="T31">
-        <v>0.01575922026349337</v>
+        <v>0.01500768657314794</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H32">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I32">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J32">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.68640339190098</v>
+        <v>6.005092333333333</v>
       </c>
       <c r="N32">
-        <v>4.68640339190098</v>
+        <v>18.015277</v>
       </c>
       <c r="O32">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="P32">
-        <v>0.1631273715247661</v>
+        <v>0.189511890517987</v>
       </c>
       <c r="Q32">
-        <v>216.8378461656024</v>
+        <v>291.1987552735325</v>
       </c>
       <c r="R32">
-        <v>216.8378461656024</v>
+        <v>2620.788797461792</v>
       </c>
       <c r="S32">
-        <v>0.01887974364925707</v>
+        <v>0.02178256094230455</v>
       </c>
       <c r="T32">
-        <v>0.01887974364925707</v>
+        <v>0.02178256094230455</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H33">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I33">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J33">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.62305854984602</v>
+        <v>2.654813333333333</v>
       </c>
       <c r="N33">
-        <v>2.62305854984602</v>
+        <v>7.96444</v>
       </c>
       <c r="O33">
-        <v>0.09130512480667538</v>
+        <v>0.0837820079767342</v>
       </c>
       <c r="P33">
-        <v>0.09130512480667538</v>
+        <v>0.08378200797673421</v>
       </c>
       <c r="Q33">
-        <v>121.3677779633395</v>
+        <v>128.7371276306622</v>
       </c>
       <c r="R33">
-        <v>121.3677779633395</v>
+        <v>1158.63414867596</v>
       </c>
       <c r="S33">
-        <v>0.01056730905488625</v>
+        <v>0.009629932399669906</v>
       </c>
       <c r="T33">
-        <v>0.01056730905488625</v>
+        <v>0.009629932399669906</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H34">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I34">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J34">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.79583398758533</v>
+        <v>7.8795</v>
       </c>
       <c r="N34">
-        <v>6.79583398758533</v>
+        <v>23.6385</v>
       </c>
       <c r="O34">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="P34">
-        <v>0.2365538010725493</v>
+        <v>0.2486654423359372</v>
       </c>
       <c r="Q34">
-        <v>314.4402821391044</v>
+        <v>382.0924749885</v>
       </c>
       <c r="R34">
-        <v>314.4402821391044</v>
+        <v>3438.8322748965</v>
       </c>
       <c r="S34">
-        <v>0.02737784028371376</v>
+        <v>0.02858169024182455</v>
       </c>
       <c r="T34">
-        <v>0.02737784028371376</v>
+        <v>0.02858169024182455</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H35">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I35">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J35">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.5014869480329</v>
+        <v>10.790329</v>
       </c>
       <c r="N35">
-        <v>10.5014869480329</v>
+        <v>32.370987</v>
       </c>
       <c r="O35">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="P35">
-        <v>0.3655425749082508</v>
+        <v>0.3405269285786269</v>
       </c>
       <c r="Q35">
-        <v>485.8992325080139</v>
+        <v>523.2443065613537</v>
       </c>
       <c r="R35">
-        <v>485.8992325080139</v>
+        <v>4709.198759052183</v>
       </c>
       <c r="S35">
-        <v>0.04230651203810611</v>
+        <v>0.03914028061239627</v>
       </c>
       <c r="T35">
-        <v>0.04230651203810611</v>
+        <v>0.03914028061239627</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H36">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I36">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J36">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.15527557242403</v>
+        <v>2.211989</v>
       </c>
       <c r="N36">
-        <v>2.15527557242403</v>
+        <v>6.635967</v>
       </c>
       <c r="O36">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="P36">
-        <v>0.07502223125919423</v>
+        <v>0.06980712267621389</v>
       </c>
       <c r="Q36">
-        <v>99.72366310280211</v>
+        <v>107.2637034910003</v>
       </c>
       <c r="R36">
-        <v>99.72366310280211</v>
+        <v>965.373331419003</v>
       </c>
       <c r="S36">
-        <v>0.008682788675681131</v>
+        <v>0.008023654345621325</v>
       </c>
       <c r="T36">
-        <v>0.008682788675681131</v>
+        <v>0.008023654345621325</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H37">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I37">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J37">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.96643357516492</v>
+        <v>2.145429666666667</v>
       </c>
       <c r="N37">
-        <v>1.96643357516492</v>
+        <v>6.436289</v>
       </c>
       <c r="O37">
-        <v>0.06844889642856414</v>
+        <v>0.06770660791450078</v>
       </c>
       <c r="P37">
-        <v>0.06844889642856414</v>
+        <v>0.0677066079145008</v>
       </c>
       <c r="Q37">
-        <v>90.98602604363595</v>
+        <v>104.0361103179668</v>
       </c>
       <c r="R37">
-        <v>90.98602604363595</v>
+        <v>936.324992861701</v>
       </c>
       <c r="S37">
-        <v>0.007922015818477414</v>
+        <v>0.007782220466817381</v>
       </c>
       <c r="T37">
-        <v>0.007922015818477414</v>
+        <v>0.007782220466817381</v>
       </c>
     </row>
   </sheetData>
